--- a/results/min_var_portfolio/min_var_2014.xlsx
+++ b/results/min_var_portfolio/min_var_2014.xlsx
@@ -531,7 +531,7 @@
         <v>-0.141077151263039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001000000000000014</v>
+        <v>0.001000000000000012</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>-0.02534804946249554</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1042064263825654</v>
+        <v>0.1341018387334771</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>0.006230549750635942</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006576863325920014</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>0.05825035542038243</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1758653904076036</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>0.03429168669059621</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000024</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>0.05721628570860179</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09478937247308525</v>
+        <v>0.1309300933923813</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +807,7 @@
         <v>0.1148130757380841</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.004282729605298713</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0.03439139280657309</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01570708227117578</v>
+        <v>0.007392408374097604</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>-0.03798530768292468</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1778510522399239</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         <v>0.1210375613585453</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.0121809121607749</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>0.06022318250426084</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0192769238244863</v>
+        <v>0.07481878778029248</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
         <v>0.07001245542820612</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2924771152760651</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>0.3184982062013766</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00100000000000001</v>
+        <v>0.001000000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -1221,7 +1221,7 @@
         <v>0.1151470516431662</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.00100000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1267,7 @@
         <v>0.02019946844587745</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05783207556394665</v>
+        <v>0.07431405926470459</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>0.05765593487934238</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000013</v>
       </c>
     </row>
     <row r="20">
@@ -1359,7 +1359,7 @@
         <v>0.05140191854204855</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001000000000000007</v>
+        <v>0.001000000000000005</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>0.01817189066454205</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04541769823522804</v>
+        <v>0.1029791706889733</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006606907611411178</v>
+        <v>-0.0116739433266411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01456735354092528</v>
+        <v>0.0268544916715576</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0154963041353171</v>
+        <v>0.01885718343157542</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03655937015545651</v>
+        <v>0.03158375319533705</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02325023794244171</v>
+        <v>-0.008889012310312441</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002659130149361628</v>
+        <v>-0.01383340334412321</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01724949339380888</v>
+        <v>0.02138974457299077</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02342896471519665</v>
+        <v>0.03290845601103991</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0228452428437604</v>
+        <v>0.03431537956617287</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0838449109543479</v>
+        <v>-0.07049160495096506</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03596112808071841</v>
+        <v>-0.03443219069318885</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03112757025814846</v>
+        <v>0.02814705398979437</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9934148700153645</v>
+        <v>0.9883939327657866</v>
       </c>
       <c r="C23" t="n">
-        <v>1.014673974534986</v>
+        <v>1.027218323067348</v>
       </c>
       <c r="D23" t="n">
-        <v>1.015616994468393</v>
+        <v>1.019036102985162</v>
       </c>
       <c r="E23" t="n">
-        <v>1.037235883045375</v>
+        <v>1.032087812628083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9770179662151735</v>
+        <v>0.9911503781590867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9973444022055232</v>
+        <v>0.9862618385011598</v>
       </c>
       <c r="H23" t="n">
-        <v>1.017399125023436</v>
+        <v>1.02162014496229</v>
       </c>
       <c r="I23" t="n">
-        <v>1.023705578946398</v>
+        <v>1.033455928232752</v>
       </c>
       <c r="J23" t="n">
-        <v>1.023108193980353</v>
+        <v>1.034910945030068</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9195738608691085</v>
+        <v>0.9319355631377104</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9646777916315549</v>
+        <v>0.9661538516882606</v>
       </c>
       <c r="M23" t="n">
-        <v>1.031617099152172</v>
+        <v>1.028546925229916</v>
       </c>
       <c r="N23" t="n">
-        <v>1.190085773804718</v>
+        <v>1.132674325814483</v>
       </c>
     </row>
   </sheetData>
